--- a/biology/Médecine/Wilbur_Scoville/Wilbur_Scoville.xlsx
+++ b/biology/Médecine/Wilbur_Scoville/Wilbur_Scoville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilbur Lincoln Scoville, né le 22 janvier 1865 à Bridgeport, au Connecticut, et mort le 10 mars 1942 à Gainesville, en Floride, est un pharmacien  américain, principalement connu pour avoir mis au point en 1912 l'échelle qui porte son nom (« The Scoville Organoleptic Test ») mesurant la force des piments.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1912, ses travaux le conduisent à étudier la pipérine, qui est la molécule présente dans le poivre et à l'origine de la sensation de piquant. Ce n'est qu'après qu'il s'intéresse à la capsaïcine qui provoque, elle, une sensation de chaleur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1912, ses travaux le conduisent à étudier la pipérine, qui est la molécule présente dans le poivre et à l'origine de la sensation de piquant. Ce n'est qu'après qu'il s'intéresse à la capsaïcine qui provoque, elle, une sensation de chaleur.
 Ses recherches ont été effectuées lors de sa carrière au sein de la société pharmaceutique Parke-Davis de Détroit (fusionnée plus tard avec Pfizer).
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Prix, honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'American Pharmaceutical Association (APhA) :
 Prix Ebert en 1922.
-Médaille d'honneur de Remington remise en 1929[2] (la plus haute distinction décernée par l'APhA).
+Médaille d'honneur de Remington remise en 1929 (la plus haute distinction décernée par l'APhA).
 Il fut fait docteur honoris causa en sciences de l'université Columbia en 1929.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Art of Compounding, décliné en huit éditions et livre de référence en pharmacologie jusque dans les années soixante (1895)
 Extract and Perfumes (contenant des tables de multicapteur de formules)</t>
